--- a/config/excel/UnitGroup.xlsx
+++ b/config/excel/UnitGroup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0C1EA4-86BE-4164-8F54-BF7D213F63C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121BFDCD-2B33-4179-A5A8-E37D6649632C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitGroup" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -187,6 +187,10 @@
   </si>
   <si>
     <t>关卡5怪物第3波</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡4召唤</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -299,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -318,6 +322,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1475,13 +1483,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -1490,9 +1498,9 @@
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="23.5" style="1" bestFit="1" customWidth="1"/>
@@ -1739,14 +1747,14 @@
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="5">
-        <v>1001</v>
+      <c r="E7" s="11">
+        <v>1010101</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="5">
-        <v>1002</v>
+      <c r="G7" s="11">
+        <v>1010102</v>
       </c>
       <c r="H7" s="5">
         <v>1</v>
@@ -1776,8 +1784,8 @@
         <v>-1</v>
       </c>
       <c r="Q7" s="5" t="str">
-        <f t="shared" ref="Q7:R10" si="0">E7&amp;","&amp;G7&amp;","&amp;I7&amp;","&amp;K7&amp;","&amp;M7&amp;","&amp;O7</f>
-        <v>1001,1002,-1,-1,-1,-1</v>
+        <f t="shared" ref="Q7:R12" si="0">E7&amp;","&amp;G7&amp;","&amp;I7&amp;","&amp;K7&amp;","&amp;M7&amp;","&amp;O7</f>
+        <v>1010101,1010102,-1,-1,-1,-1</v>
       </c>
       <c r="R7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1791,20 +1799,20 @@
       <c r="D8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="1">
-        <v>5</v>
+      <c r="E8" s="12">
+        <v>1010201</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>5</v>
+      <c r="G8" s="12">
+        <v>1010202</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="1">
-        <v>7</v>
+      <c r="I8" s="12">
+        <v>1010203</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1829,7 +1837,7 @@
       </c>
       <c r="Q8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>5,5,7,-1,-1,-1</v>
+        <v>1010201,1010202,1010203,-1,-1,-1</v>
       </c>
       <c r="R8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1844,31 +1852,31 @@
         <v>45</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
+        <v>1010301</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>1010302</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>5</v>
+        <v>1010303</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>5</v>
+        <v>1010304</v>
       </c>
       <c r="L9" s="1">
         <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>7</v>
+        <v>1010305</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
@@ -1881,7 +1889,7 @@
       </c>
       <c r="Q9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>5,5,5,5,7,-1</v>
+        <v>1010301,1010302,1010303,1010304,1010305,-1</v>
       </c>
       <c r="R9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1896,34 +1904,34 @@
         <v>46</v>
       </c>
       <c r="E10" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G10" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I10" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K10" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M10" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O10" s="1">
         <v>9</v>
@@ -1932,42 +1940,138 @@
         <v>1</v>
       </c>
       <c r="Q10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>10,10,10,10,10,9</v>
+        <f>E10&amp;","&amp;G10&amp;","&amp;I10&amp;","&amp;K10&amp;","&amp;M10&amp;","&amp;O10</f>
+        <v>-1,-1,-1,-1,-1,9</v>
       </c>
       <c r="R10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>1,1,1,1,1,1</v>
+        <v>-1,-1,-1,-1,-1,1</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="13.35" customHeight="1">
       <c r="C11" s="9">
-        <v>100501</v>
+        <v>100402</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>10</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>10</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,10,10,10,10,10</v>
+      </c>
+      <c r="R11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,1,1,1,1,1</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="13.35" customHeight="1">
-      <c r="C12" s="10">
-        <v>100502</v>
+      <c r="C12" s="9">
+        <v>100501</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1010501</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1010502</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1010503</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1010504</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1010505</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1010506</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1010501,1010502,1010503,1010504,1010505,1010506</v>
+      </c>
+      <c r="R12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1,1</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="13.35" customHeight="1">
-      <c r="C13" s="9">
+      <c r="C13" s="10">
+        <v>100502</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="13.35" customHeight="1">
+      <c r="C14" s="9">
         <v>100503</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
